--- a/data/trans_dic/P15_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con convivientes no familiares con COVID-19</t>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -695,57 +696,57 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,43</t>
+          <t>1,19; 10,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,94</t>
+          <t>0,2; 2,82</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,99</t>
+          <t>1,11; 6,13</t>
         </is>
       </c>
     </row>
@@ -855,12 +856,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -885,12 +886,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,12 +906,12 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,97</t>
+          <t>0,72; 6,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,25</t>
+          <t>0,51; 4,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,32</t>
+          <t>0,24; 2,83</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,42</t>
+          <t>0,96; 4,67</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1036,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,12 +1051,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,23</t>
+          <t>0,87; 4,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,28; 2,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,95</t>
+          <t>1,15; 5,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,13</t>
+          <t>0,14; 1,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,03</t>
+          <t>1,25; 4,11</t>
         </is>
       </c>
     </row>
@@ -1195,62 +1196,62 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>0,37%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,19</t>
+          <t>0,42; 4,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,36</t>
+          <t>0,86; 5,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,34</t>
+          <t>0,13; 1,37</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,85</t>
+          <t>0,88; 3,72</t>
         </is>
       </c>
     </row>
@@ -1370,14 +1371,14 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,63%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,59%</t>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1420,12 +1421,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,22 +1444,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1468,52 +1469,52 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,51</t>
+          <t>0,16; 1,53</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,1</t>
+          <t>0,23; 2,09</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1536,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1560,7 +1561,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1570,7 +1571,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1585,7 +1586,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
@@ -1595,7 +1596,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,18</t>
+          <t>0,46; 4,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,79</t>
+          <t>0,59; 7,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,02</t>
+          <t>0,95; 5,12</t>
         </is>
       </c>
     </row>
@@ -1705,19 +1706,19 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,33%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>2,03%</t>
@@ -1730,7 +1731,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1740,7 +1741,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1760,7 +1761,7 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -1770,7 +1771,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,66</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,76</t>
+          <t>0,13; 0,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,98</t>
+          <t>0,11; 0,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,12</t>
+          <t>1,32; 3,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,71</t>
+          <t>0,11; 0,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,75</t>
+          <t>0,08; 0,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,94</t>
+          <t>0,23; 0,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,03</t>
+          <t>0,22; 0,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,33</t>
+          <t>1,4; 3,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,35</t>
+          <t>0,06; 0,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,56</t>
+          <t>0,11; 0,52</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,69</t>
+          <t>0,23; 0,69</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,78</t>
+          <t>0,24; 0,77</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,83</t>
+          <t>1,53; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9458</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>499; 4236</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12361</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15734</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17706</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19066</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13940</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14515</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20680</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2091; 28885</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>885; 4872</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6117</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10515</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16772</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23216</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>359; 3276</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15858</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13026</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>240; 2169</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16450</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2574; 30382</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12870</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>932; 4531</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2631</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11318</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>523; 2995</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1940; 16083</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11921</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14757</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7877</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>620; 2837</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1929; 15697</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13497</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13622</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12794</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1429; 4690</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2457</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1346</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6215</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12025</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12531</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11888</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>243; 2795</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12249</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11814</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>452; 3105</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16935</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1744; 18029</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11883</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>971; 4117</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3179</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6272</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12461</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10772</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1371</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14023</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9918</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1597</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17124</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11348</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1613; 15416</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>216; 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2594</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1833</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13424</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>218; 2106</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15366</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22640</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>375; 4684</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17753</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19819</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1050; 5657</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12213</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6118</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>17662</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>19140</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6499</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>18928</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>29875</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>30392</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>12618</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2423; 23273</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4313; 27543</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3960; 27647</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3983; 9966</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3996; 26614</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2894; 25939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8297; 35929</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7927; 35499</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4241; 10172</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3950; 25512</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7940; 36621</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>15983; 48661</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>16929; 54233</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>9252; 16905</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>